--- a/pred_ohlcv/54_21/2019-10-19 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 EOS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>6346.497691400008</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>8820.626291400007</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>8834.646291400008</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>8834.646291400008</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>8816.456491400008</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>9111.613091400008</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>22283.76729140001</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>31609.1510914</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>22791.7591914</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>22862.1848914</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>25012.1398914</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>25012.1398914</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>24983.8652914</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>21783.8652914</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>21739.1379914</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>22033.2989914</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>17900.6568914</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>17900.6568914</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>17825.8068914</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>17874.4922914</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>17874.4922914</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>17874.4922914</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>17874.4922914</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>18008.0022914</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>18096.3234914</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>18116.7946914</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>14885.7946914</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>14851.0541914</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>14831.0541914</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>14436.3255914</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>17615.0084914</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>17915.0084914</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>17015.0084914</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>16881.0556914</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>18198.4276914</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>16748.1977914</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>16748.1977914</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>17544.0018914</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>18008.20836198</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>18161.78096198</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>11149.38086198</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>11149.38086198</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>11358.62086198</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>11346.62086198</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>33397.52256198</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>58720.41546198</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>63566.73446198</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>60378.94336198</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>59637.63156198</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>59488.76156198</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>59129.72906198</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>81963.99247213999</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>82745.66107213999</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>76843.55407213999</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>80226.01657213998</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>80226.01657213998</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>79878.93787213998</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>79812.93267213998</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>79812.06527213998</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>115095.3682317</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>116922.1638317</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>109030.7397317</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>107913.6859317</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>108435.0046317</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>108001.0941317</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>108007.09587816</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>109067.43577816</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>109067.43577816</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>107206.82727816</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>107206.82727816</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>107206.82727816</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>107000.14807816</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>76236.5642849</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>63987.65748402999</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>64792.70258402999</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>64999.99198402999</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>64926.90398402999</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>64542.73808402999</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>67042.73808402999</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>65866.37658402999</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>65606.46258402999</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>64003.77258402998</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>62775.04498402998</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>62744.47268402998</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-19 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 EOS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>6346.497691400008</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>8820.626291400007</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>8834.646291400008</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>8834.646291400008</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>8816.456491400008</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>8816.456491400008</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>9111.613091400008</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>22283.76729140001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>31143.0887914</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>22862.1848914</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>25012.1398914</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>25012.1398914</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>24983.8652914</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>21783.8652914</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>21739.1379914</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>22033.2989914</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>17900.6568914</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>17900.6568914</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>17825.8068914</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>17874.4922914</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>17874.4922914</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>17874.4922914</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>17874.4922914</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>18008.0022914</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>18096.3234914</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>18116.7946914</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>14885.7946914</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>14851.0541914</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>14831.0541914</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>14436.3255914</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>16279.1393914</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>17615.0084914</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>17915.0084914</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>17015.0084914</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>16881.0556914</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>16970.2670914</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>19123.8677914</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>19293.9121914</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>19093.9121914</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>19093.9121914</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>19095.9121914</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>18980.4524914</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>18198.4276914</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>16748.1977914</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>16748.1977914</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>17544.0018914</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>18008.20836198</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>18161.78096198</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>21361.78096198</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>11149.38086198</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>11149.38086198</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>11358.62086198</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>51688.93426198</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>58720.41546198</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>63746.73446198</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>60378.94336198</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>53332.44216198001</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>55713.93946198001</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>59460.00526198</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>59455.45826198001</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>59455.45826198001</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>59455.45826198001</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>59875.87706198001</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>57267.39606198001</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>57060.88316198</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>56349.65306198</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>57215.47096198001</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>81963.99247213999</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>82745.66107213999</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>76843.55407213999</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>80226.01657213998</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>80226.01657213998</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>79878.93787213998</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>79812.93267213998</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>79812.06527213998</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>105433.3520317</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>114464.3363317</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>114464.3363317</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>115880.3189317</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>115095.3682317</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>117301.1900317</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>116922.1638317</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>116953.7890317</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>115931.4572317</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>117504.4555317</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>109030.7397317</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>107913.6859317</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>108435.0046317</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>108376.9876317</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>107055.7118317</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>107395.5447317</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>107235.7412317</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>107833.2356317</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>107705.6323317</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>108556.6451317</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>108611.6451317</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>108001.0941317</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>108007.09587816</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>109067.43577816</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>109067.43577816</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>109067.43577816</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>109067.43577816</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>109067.43577816</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>107206.82727816</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>107206.82727816</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>107206.82727816</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>107000.14807816</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>104680.02947816</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>104680.02947816</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>106491.14657816</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>104649.05567816</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>105285.92637816</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>76236.5642849</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>63987.65748402999</v>
       </c>
       <c r="H933">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>64792.70258402999</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>64999.99198402999</v>
       </c>
       <c r="H935">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>64926.90398402999</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>64542.73808402999</v>
       </c>
       <c r="H937">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>67042.73808402999</v>
       </c>
       <c r="H938">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>65866.37658402999</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>65606.46258402999</v>
       </c>
       <c r="H940">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>64003.77258402998</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>62775.04498402998</v>
       </c>
       <c r="H942">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>62744.47268402998</v>
       </c>
       <c r="H943">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>100960.99702411</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>100065.34802411</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>112676.42572411</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>111982.50512411</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>116016.48272411</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>114671.51692411</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>112755.57962411</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>112695.22202411</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
